--- a/HIK LN.xlsx
+++ b/HIK LN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{219E16D5-FB01-468D-9CC2-F8E2EB6C2856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64252422-AF0C-49EF-99F2-F7EE0116CFFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13425" yWindow="1455" windowWidth="13830" windowHeight="13500" xr2:uid="{C9FC0B3B-AEDE-4F11-8482-81AD2B71CD72}"/>
+    <workbookView xWindow="-50220" yWindow="1860" windowWidth="22875" windowHeight="18315" xr2:uid="{C9FC0B3B-AEDE-4F11-8482-81AD2B71CD72}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>Cash USD</t>
   </si>
   <si>
-    <t>Q421</t>
-  </si>
-  <si>
     <t>Price GBP</t>
   </si>
   <si>
@@ -74,12 +71,15 @@
   </si>
   <si>
     <t>Debt USD</t>
+  </si>
+  <si>
+    <t>Q224</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -119,7 +119,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{3E0C0291-D6BF-4560-BF0B-C083F12E9C52}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -132,9 +134,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,7 +174,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -278,7 +280,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -420,7 +422,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -430,8 +432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55396857-A5B6-4E19-8007-A3A40549B554}">
   <dimension ref="B2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -452,10 +454,10 @@
         <v>4</v>
       </c>
       <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2">
-        <v>1721.48</v>
+        <v>9</v>
+      </c>
+      <c r="K2" s="2">
+        <v>1992</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.2">
@@ -472,19 +474,19 @@
         <v>0</v>
       </c>
       <c r="K3" s="2">
-        <v>233</v>
+        <v>221.74757500000001</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="K4" s="2">
         <f>+K2*K3/100</f>
-        <v>4011.0484000000001</v>
+        <v>4417.2116940000005</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.2">
@@ -492,22 +494,22 @@
         <v>8</v>
       </c>
       <c r="K5" s="2">
-        <v>426</v>
+        <v>236</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="J6" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="2">
+        <f>+K5+1276</f>
+        <v>1512</v>
+      </c>
+      <c r="L6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="K6" s="2">
-        <f>651+112</f>
-        <v>763</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.2">
